--- a/Tutoring3.xlsx
+++ b/Tutoring3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICHAŁ\Desktop\projekt_korepetycje\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E47BE1-B09A-4E46-B168-00004544E66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Y_</t>
   </si>
@@ -102,12 +103,69 @@
   </si>
   <si>
     <t>Piccolo</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,16 +279,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -520,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,11 +632,11 @@
       <c r="F2" s="2">
         <v>0.25</v>
       </c>
-      <c r="G2" s="2">
-        <v>64</v>
-      </c>
-      <c r="H2" s="2">
-        <v>23</v>
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -607,11 +658,11 @@
       <c r="F3" s="3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="3">
-        <v>64</v>
-      </c>
-      <c r="H3" s="3">
-        <v>23</v>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -633,11 +684,11 @@
       <c r="F4" s="9">
         <v>0.25</v>
       </c>
-      <c r="G4" s="9">
-        <v>50</v>
-      </c>
-      <c r="H4" s="9">
-        <v>49</v>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -659,11 +710,11 @@
       <c r="F5" s="3">
         <v>0.25</v>
       </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3">
-        <v>49</v>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -685,11 +736,11 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>70</v>
-      </c>
-      <c r="H6" s="3">
-        <v>60</v>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -711,11 +762,11 @@
       <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
-        <v>70</v>
-      </c>
-      <c r="H7" s="3">
-        <v>60</v>
+      <c r="G7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -737,11 +788,11 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <v>80</v>
-      </c>
-      <c r="H8" s="3">
-        <v>64</v>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -763,11 +814,11 @@
       <c r="F9" s="3">
         <v>0.25</v>
       </c>
-      <c r="G9" s="3">
-        <v>80</v>
-      </c>
-      <c r="H9" s="3">
-        <v>64</v>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -789,11 +840,11 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
-        <v>27</v>
-      </c>
-      <c r="H10" s="3">
-        <v>42</v>
+      <c r="G10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -815,11 +866,11 @@
       <c r="F11" s="3">
         <v>0.5</v>
       </c>
-      <c r="G11" s="3">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3">
-        <v>23</v>
+      <c r="G11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -841,11 +892,11 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9</v>
+      <c r="G12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -867,11 +918,11 @@
       <c r="F13" s="3">
         <v>0.25</v>
       </c>
-      <c r="G13" s="3">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3">
-        <v>9</v>
+      <c r="G13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -893,11 +944,11 @@
       <c r="F14" s="3">
         <v>0.5</v>
       </c>
-      <c r="G14" s="3">
-        <v>91</v>
-      </c>
-      <c r="H14" s="3">
-        <v>91</v>
+      <c r="G14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -919,11 +970,11 @@
       <c r="F15" s="3">
         <v>0.25</v>
       </c>
-      <c r="G15" s="3">
-        <v>44</v>
-      </c>
-      <c r="H15" s="3">
-        <v>84</v>
+      <c r="G15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -945,11 +996,11 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="3">
-        <v>44</v>
-      </c>
-      <c r="H16" s="3">
-        <v>84</v>
+      <c r="G16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -971,11 +1022,11 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="3">
-        <v>44</v>
-      </c>
-      <c r="H17" s="3">
-        <v>84</v>
+      <c r="G17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -997,11 +1048,11 @@
       <c r="F18" s="3">
         <v>0.5</v>
       </c>
-      <c r="G18" s="3">
-        <v>13</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10</v>
+      <c r="G18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1023,11 +1074,11 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="3">
-        <v>10</v>
-      </c>
-      <c r="H19" s="3">
-        <v>10</v>
+      <c r="G19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1049,11 +1100,11 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="3">
-        <v>99</v>
-      </c>
-      <c r="H20" s="3">
-        <v>60</v>
+      <c r="G20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1075,24 +1126,24 @@
       <c r="F21" s="3">
         <v>0.5</v>
       </c>
-      <c r="G21" s="3">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5</v>
+      <c r="G21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
     <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="E2:E6 D1:E1 E12:E1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>"{0,5;1;2;3}"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E11">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"{0,5;1;2;3}"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tutoring3.xlsx
+++ b/Tutoring3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICHAŁ\Desktop\projekt_korepetycje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python\projekt_korepetycje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E47BE1-B09A-4E46-B168-00004544E66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +278,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -571,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,106 +640,106 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3">
         <v>40</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
         <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>15</v>
       </c>
       <c r="F3" s="3">
         <v>0.5</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="9">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="F4" s="9">
         <v>0.25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3">
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="F5" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -771,371 +770,372 @@
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="3">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9</v>
-      </c>
       <c r="F9" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>11</v>
-      </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="F13" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3">
         <v>0.5</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3">
         <v>0.5</v>
       </c>
       <c r="E19" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
       </c>
       <c r="E20" s="3">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
+        <v>50</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:H21">
+    <sortCondition ref="C2:C21" customList="monday,tuesday,wednesday,thursday,friday"/>
+    <sortCondition ref="E2:E21"/>
   </sortState>
   <conditionalFormatting sqref="E2:E6 D1:E1 E12:E1048576">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/Tutoring3.xlsx
+++ b/Tutoring3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python\projekt_korepetycje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,55 +110,55 @@
     <t>2.3</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
   <si>
     <t>2.7</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -276,6 +276,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,8 +583,10 @@
     <col min="1" max="1" width="17.77734375" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" style="8" customWidth="1"/>
-    <col min="4" max="8" width="17.77734375" style="7" customWidth="1"/>
-    <col min="9" max="16" width="17.77734375" customWidth="1"/>
+    <col min="4" max="6" width="17.77734375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="17.77734375" style="8" customWidth="1"/>
+    <col min="9" max="10" width="17.77734375" style="11" customWidth="1"/>
+    <col min="11" max="16" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -605,10 +608,10 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -658,10 +661,10 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -684,10 +687,10 @@
         <v>0.25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,10 +713,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -736,10 +739,10 @@
         <v>0.25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -762,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -788,10 +791,10 @@
         <v>0.25</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -814,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>34</v>
@@ -840,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -866,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -892,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -918,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -944,7 +947,7 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>27</v>
@@ -996,10 +999,10 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1022,10 +1025,10 @@
         <v>0.25</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1048,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1074,7 +1077,7 @@
         <v>0.25</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>26</v>
@@ -1100,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>26</v>
@@ -1126,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
